--- a/UFTAIRecordingAndMockup/Default.xlsx
+++ b/UFTAIRecordingAndMockup/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>BrowserName</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>laptop_price</t>
-  </si>
-  <si>
-    <t>firefox.exe</t>
   </si>
   <si>
     <t>chrome.exe</t>
@@ -523,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -553,19 +550,8 @@
         <v>1</v>
       </c>
       <c t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row>
-      <c s="1">
-        <v>699.99000000000001</v>
-      </c>
-      <c s="1" t="s">
         <v>5</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="3"/>
     </row>
     <row>
       <c s="1">
